--- a/Assignment6/Book1.xlsx
+++ b/Assignment6/Book1.xlsx
@@ -5,42 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmelv/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmelv/Desktop/DataStructuresAndAlgorithms/Assignment6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94EB3CCF-E022-DF4F-9C0C-5F25ABF1F2A9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616D42EA-979E-1044-8E7B-D726EA5CD18C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="440" windowWidth="24480" windowHeight="26740" xr2:uid="{C9C0DAD6-D577-2B41-A23A-ED02CD6695B4}"/>
+    <workbookView xWindow="26700" yWindow="440" windowWidth="24480" windowHeight="26740" xr2:uid="{C9C0DAD6-D577-2B41-A23A-ED02CD6695B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$1:$L$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$1:$L$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$2:$L$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$1:$L$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$L$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$2:$L$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1:$L$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$1:$N$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$2:$L$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$3:$N$3</definedName>
-  </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -309,34 +283,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>162</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>245</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>461</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>371</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>484</c:v>
+                  <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>623</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>833</c:v>
+                  <c:v>774</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>961</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,34 +398,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,25 +513,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10</c:v>
@@ -566,7 +540,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -654,10 +628,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -666,22 +640,22 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1144,34 +1118,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,25 +1233,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10</c:v>
@@ -1286,7 +1260,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1374,10 +1348,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -1386,22 +1360,22 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3203,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75100D4-AF8F-F541-8864-8F486BCCCEB9}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="Q78" sqref="Q78"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3253,34 +3227,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1">
-        <v>245</v>
+        <v>176</v>
       </c>
       <c r="F2" s="1">
-        <v>461</v>
+        <v>359</v>
       </c>
       <c r="G2" s="1">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="H2" s="1">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="I2" s="1">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="J2" s="1">
-        <v>833</v>
+        <v>774</v>
       </c>
       <c r="K2" s="1">
-        <v>961</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3288,34 +3262,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3323,25 +3297,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1">
         <v>8</v>
       </c>
       <c r="D4" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
@@ -3350,7 +3324,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3358,10 +3332,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
@@ -3370,22 +3344,22 @@
         <v>6</v>
       </c>
       <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
         <v>8</v>
       </c>
-      <c r="G5" s="1">
-        <v>9</v>
-      </c>
       <c r="H5" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment6/Book1.xlsx
+++ b/Assignment6/Book1.xlsx
@@ -5,16 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmelv/Desktop/DataStructuresAndAlgorithms/Assignment6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmelv/Desktop/Projects/MSSD/DataStructuresAndAlgorithms/Assignment6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616D42EA-979E-1044-8E7B-D726EA5CD18C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0F0BE1-4247-6647-87C5-CA80EC05543F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26700" yWindow="440" windowWidth="24480" windowHeight="26740" xr2:uid="{C9C0DAD6-D577-2B41-A23A-ED02CD6695B4}"/>
+    <workbookView xWindow="4240" yWindow="440" windowWidth="24480" windowHeight="26740" xr2:uid="{C9C0DAD6-D577-2B41-A23A-ED02CD6695B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$1:$N$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$3:$N$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$4:$N$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$5:$N$5</definedName>
+  </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -283,34 +289,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>359</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>494</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>626</c:v>
+                  <c:v>608</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>774</c:v>
+                  <c:v>796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>950</c:v>
+                  <c:v>984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -398,22 +404,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15</c:v>
@@ -422,10 +428,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -513,31 +519,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>12</c:v>
@@ -634,22 +640,22 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>11</c:v>
@@ -1118,22 +1124,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15</c:v>
@@ -1142,10 +1148,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1233,31 +1239,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>12</c:v>
@@ -1354,22 +1360,22 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>11</c:v>
@@ -2804,15 +2810,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2840,15 +2846,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3178,7 +3184,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:K5"/>
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3227,34 +3233,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="F2" s="1">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="G2" s="1">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H2" s="1">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="I2" s="1">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="J2" s="1">
-        <v>774</v>
+        <v>796</v>
       </c>
       <c r="K2" s="1">
-        <v>950</v>
+        <v>984</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3262,22 +3268,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>17</v>
       </c>
       <c r="E3" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1">
         <v>15</v>
@@ -3286,10 +3292,10 @@
         <v>16</v>
       </c>
       <c r="J3" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3297,31 +3303,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
         <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1">
-        <v>7</v>
       </c>
       <c r="H4" s="1">
         <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="1">
         <v>12</v>
@@ -3338,22 +3344,22 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
         <v>6</v>
       </c>
       <c r="F5" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1">
         <v>10</v>
-      </c>
-      <c r="I5" s="1">
-        <v>11</v>
       </c>
       <c r="J5" s="1">
         <v>11</v>
